--- a/biology/Botanique/Suillus_variegatus/Suillus_variegatus.xlsx
+++ b/biology/Botanique/Suillus_variegatus/Suillus_variegatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet moucheté, Bolet tacheté
 Suillus variegatus, autrefois Boletus variegatus, le bolet moucheté ou bolet tacheté, est une espèce assez commune de champignons basidiomycètes du genre Suillus de la famille des Suillaceae, et autrefois de la famille des Boletaceae, caractérisé par son chapeau moucheté et ses teintes brunes.
@@ -512,57 +524,166 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus variegatus (Sw.) Kuntze, 1898[1]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus variegatus Sw., 1810[1].
-Synonymes
-Suillus variegatus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus variegatus (Sw.) Kuntze, 1898. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus variegatus Sw., 1810.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Suillus_variegatus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_variegatus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suillus variegatus a pour synonymes :
 Boletus squalidus Fr., 1838
 Boletus variegatus Sw., 1810
 Ixocomus variegatus (Sw.) Quél., 1888
 Versipellis variegata var. variegata (Sw.) Quél., 1886
 Versipellis variegata (Sw.) Quél., 1886
 Versipellis variegata (Swartz) Quél., 1886
-Noms vulgaires et vernaculaires
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bolet moucheté[2],[3], bolet tacheté[3].
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Suillus_variegatus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Suillus_variegatus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bolet moucheté bolet tacheté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Suillus_variegatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_variegatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques de Suillus variegatus, le Bolet moucheté, sont les suivantes :
-Son chapeau mesure 5 à 15 cm. Il est très peu visqueux ou complètement sec, de couleur jaune sale, parfois olivâtre, entièrement feutré-méchuleux ou moucheté[4], orné d'écailles apprimées ou de squamules détersiles. La cuticule est séparable.
-L'hyménophore présente des tubes jaunes, jaune orangé ou grisâtres puis typiquement brun olivâtre "moutarde". Les pores sont assez amples, composés, pratiquement pas anguleux, concolores aux tubes[4].
-Son stipe mesure 4 à 12 cm x 1 à 3 cm, il est à peu près lisse, concolore au chapeau ou un peu plus pâle[4], orné de fibrilles longitudinales.
-La chair est ferme, ou aqueuse et vite spongieuse selon l'humidité, de couleur crème à jaune crème, pouvant bleuir au voisinage des tubes. Sa saveur est douce ou alors amère et chlorée et son odeur est fruitée, un peu acidulée ou de caoutchouc[4], d'eau de javel.
-Caractéristiques microscopiques
-Ses spores mesurent 8 à 10 μm x 3 à 4 μm, elles sont elliptiques-fusoïdes[4].
+Son chapeau mesure 5 à 15 cm. Il est très peu visqueux ou complètement sec, de couleur jaune sale, parfois olivâtre, entièrement feutré-méchuleux ou moucheté, orné d'écailles apprimées ou de squamules détersiles. La cuticule est séparable.
+L'hyménophore présente des tubes jaunes, jaune orangé ou grisâtres puis typiquement brun olivâtre "moutarde". Les pores sont assez amples, composés, pratiquement pas anguleux, concolores aux tubes.
+Son stipe mesure 4 à 12 cm x 1 à 3 cm, il est à peu près lisse, concolore au chapeau ou un peu plus pâle, orné de fibrilles longitudinales.
+La chair est ferme, ou aqueuse et vite spongieuse selon l'humidité, de couleur crème à jaune crème, pouvant bleuir au voisinage des tubes. Sa saveur est douce ou alors amère et chlorée et son odeur est fruitée, un peu acidulée ou de caoutchouc, d'eau de javel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Suillus_variegatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_variegatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 8 à 10 μm x 3 à 4 μm, elles sont elliptiques-fusoïdes.
 </t>
         </is>
       </c>
